--- a/datasets/response_data.xlsx
+++ b/datasets/response_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyas/Desktop/Fall_22/Research/scaling-ltsm/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB03218-6A36-374E-96ED-F9142BE81C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA916E2-390C-464A-AF0C-9F505233C87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2B1DFD18-B866-8346-8017-03D373FA2209}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2B1DFD18-B866-8346-8017-03D373FA2209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29659D1B-A981-0547-8DCF-0D215BE11AF8}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
